--- a/sourcepackage.xlsx
+++ b/sourcepackage.xlsx
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
